--- a/image/valueset.xlsx
+++ b/image/valueset.xlsx
@@ -1414,45 +1414,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.60546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.2265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.73828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.18359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="62.16015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.91796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="62.0859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="52.0078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/valueset.xlsx
+++ b/image/valueset.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3014" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3014" uniqueCount="404">
   <si>
     <t>Path</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -381,10 +381,6 @@
   </si>
   <si>
     <t>ValueSet.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Business version of the value set</t>
@@ -1414,45 +1410,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.2265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.60546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.18359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.73828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="62.0859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="52.0078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="62.16015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.91796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="51.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2822,16 +2818,16 @@
         <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2899,10 +2895,10 @@
         <v>40</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>40</v>
@@ -2910,7 +2906,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2933,19 +2929,19 @@
         <v>49</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -2994,7 +2990,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -3003,7 +2999,7 @@
         <v>48</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>40</v>
@@ -3023,7 +3019,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3046,16 +3042,16 @@
         <v>49</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3105,7 +3101,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3123,7 +3119,7 @@
         <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -3134,7 +3130,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3160,13 +3156,13 @@
         <v>67</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3192,52 +3188,52 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -3245,7 +3241,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3268,19 +3264,19 @@
         <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -3329,7 +3325,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3347,10 +3343,10 @@
         <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -3358,11 +3354,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3381,16 +3377,16 @@
         <v>49</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3440,7 +3436,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3458,10 +3454,10 @@
         <v>46</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>40</v>
@@ -3469,7 +3465,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3492,19 +3488,19 @@
         <v>49</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3553,7 +3549,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3571,10 +3567,10 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>40</v>
@@ -3582,7 +3578,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3605,16 +3601,16 @@
         <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3664,7 +3660,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3682,7 +3678,7 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3693,11 +3689,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3716,16 +3712,16 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3775,7 +3771,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3793,7 +3789,7 @@
         <v>46</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3804,7 +3800,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3827,19 +3823,19 @@
         <v>49</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3888,7 +3884,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3906,7 +3902,7 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3917,7 +3913,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3940,16 +3936,16 @@
         <v>49</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3975,14 +3971,14 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="X23" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="X23" t="s" s="2">
+      <c r="Y23" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3999,7 +3995,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4017,7 +4013,7 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -4028,7 +4024,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4051,16 +4047,16 @@
         <v>49</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4110,7 +4106,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4139,7 +4135,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4162,16 +4158,16 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4221,7 +4217,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4239,10 +4235,10 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>116</v>
@@ -4250,11 +4246,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4273,19 +4269,19 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4334,7 +4330,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4352,7 +4348,7 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -4363,11 +4359,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4386,13 +4382,13 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4443,7 +4439,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4455,7 +4451,7 @@
         <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>40</v>
@@ -4472,7 +4468,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4495,13 +4491,13 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4552,22 +4548,22 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>40</v>
@@ -4581,7 +4577,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4610,7 +4606,7 @@
         <v>93</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>95</v>
@@ -4663,7 +4659,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4678,7 +4674,7 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>40</v>
@@ -4692,11 +4688,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4718,10 +4714,10 @@
         <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>95</v>
@@ -4776,7 +4772,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4805,7 +4801,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4828,16 +4824,16 @@
         <v>49</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4887,7 +4883,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4908,7 +4904,7 @@
         <v>40</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
@@ -4916,7 +4912,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4939,16 +4935,16 @@
         <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4998,7 +4994,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5027,7 +5023,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5050,16 +5046,16 @@
         <v>49</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5109,7 +5105,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>48</v>
@@ -5121,7 +5117,7 @@
         <v>40</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>46</v>
@@ -5138,7 +5134,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5161,13 +5157,13 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5218,22 +5214,22 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>40</v>
@@ -5247,7 +5243,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5276,7 +5272,7 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>95</v>
@@ -5329,7 +5325,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5344,7 +5340,7 @@
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>40</v>
@@ -5358,11 +5354,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5384,10 +5380,10 @@
         <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>95</v>
@@ -5442,7 +5438,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5471,7 +5467,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5497,13 +5493,13 @@
         <v>61</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5553,7 +5549,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5562,7 +5558,7 @@
         <v>48</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>40</v>
@@ -5582,7 +5578,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5605,16 +5601,16 @@
         <v>49</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5664,7 +5660,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5693,7 +5689,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5716,16 +5712,16 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5775,7 +5771,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5784,10 +5780,10 @@
         <v>42</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>46</v>
@@ -5804,7 +5800,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5827,13 +5823,13 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5884,22 +5880,22 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>40</v>
@@ -5913,7 +5909,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5942,7 +5938,7 @@
         <v>93</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>95</v>
@@ -5995,7 +5991,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6010,7 +6006,7 @@
         <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>40</v>
@@ -6024,11 +6020,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6050,10 +6046,10 @@
         <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>95</v>
@@ -6108,7 +6104,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6137,7 +6133,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6163,13 +6159,13 @@
         <v>67</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6219,7 +6215,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>48</v>
@@ -6248,7 +6244,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6271,16 +6267,16 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6330,7 +6326,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6359,7 +6355,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6382,16 +6378,16 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6441,7 +6437,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6453,7 +6449,7 @@
         <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>40</v>
@@ -6470,7 +6466,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6493,13 +6489,13 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6550,22 +6546,22 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>40</v>
@@ -6579,7 +6575,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6608,7 +6604,7 @@
         <v>93</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>95</v>
@@ -6661,7 +6657,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6676,7 +6672,7 @@
         <v>40</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>40</v>
@@ -6690,11 +6686,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6716,10 +6712,10 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>95</v>
@@ -6774,7 +6770,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6803,7 +6799,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6829,13 +6825,13 @@
         <v>67</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6885,7 +6881,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6914,7 +6910,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6937,16 +6933,16 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6972,14 +6968,14 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>40</v>
       </c>
@@ -6996,7 +6992,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7025,7 +7021,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7048,13 +7044,13 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7105,7 +7101,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>48</v>
@@ -7134,7 +7130,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7157,16 +7153,16 @@
         <v>49</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7216,7 +7212,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7225,10 +7221,10 @@
         <v>42</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>46</v>
@@ -7245,7 +7241,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7268,13 +7264,13 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7325,22 +7321,22 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>40</v>
@@ -7354,7 +7350,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7383,7 +7379,7 @@
         <v>93</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>95</v>
@@ -7436,7 +7432,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7451,7 +7447,7 @@
         <v>40</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>40</v>
@@ -7465,11 +7461,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7491,10 +7487,10 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>95</v>
@@ -7549,7 +7545,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7578,7 +7574,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7604,10 +7600,10 @@
         <v>67</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7658,7 +7654,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>48</v>
@@ -7687,7 +7683,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7713,13 +7709,13 @@
         <v>67</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7745,14 +7741,14 @@
         <v>40</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>311</v>
-      </c>
       <c r="Z57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7769,7 +7765,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>48</v>
@@ -7798,7 +7794,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7821,16 +7817,16 @@
         <v>49</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7880,7 +7876,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>48</v>
@@ -7909,7 +7905,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7932,16 +7928,16 @@
         <v>49</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7991,7 +7987,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8000,7 +7996,7 @@
         <v>42</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>40</v>
@@ -8020,7 +8016,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8046,13 +8042,13 @@
         <v>40</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8102,7 +8098,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8111,7 +8107,7 @@
         <v>42</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>40</v>
@@ -8131,7 +8127,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8154,16 +8150,16 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8213,7 +8209,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8225,7 +8221,7 @@
         <v>40</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>40</v>
@@ -8242,7 +8238,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8265,13 +8261,13 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8322,22 +8318,22 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>40</v>
@@ -8351,7 +8347,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8380,7 +8376,7 @@
         <v>93</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>95</v>
@@ -8433,7 +8429,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8448,7 +8444,7 @@
         <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>40</v>
@@ -8462,11 +8458,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8488,10 +8484,10 @@
         <v>92</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>95</v>
@@ -8546,7 +8542,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8575,7 +8571,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8601,13 +8597,13 @@
         <v>61</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8657,7 +8653,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8686,7 +8682,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8709,16 +8705,16 @@
         <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -8768,7 +8764,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>48</v>
@@ -8797,7 +8793,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8820,16 +8816,16 @@
         <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8879,7 +8875,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8908,7 +8904,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8931,23 +8927,23 @@
         <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P68" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q68" t="s" s="2">
         <v>40</v>
@@ -8992,7 +8988,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9021,7 +9017,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9044,16 +9040,16 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9103,7 +9099,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9115,7 +9111,7 @@
         <v>40</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>40</v>
@@ -9132,7 +9128,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9155,13 +9151,13 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9212,22 +9208,22 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>40</v>
@@ -9241,7 +9237,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9270,7 +9266,7 @@
         <v>93</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>95</v>
@@ -9323,7 +9319,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9338,7 +9334,7 @@
         <v>40</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>40</v>
@@ -9352,11 +9348,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9378,10 +9374,10 @@
         <v>92</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>95</v>
@@ -9436,7 +9432,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9465,7 +9461,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9488,16 +9484,16 @@
         <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -9547,7 +9543,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>48</v>
@@ -9576,7 +9572,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9599,13 +9595,13 @@
         <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9656,7 +9652,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9685,7 +9681,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9708,13 +9704,13 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9765,7 +9761,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9777,7 +9773,7 @@
         <v>40</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>40</v>
@@ -9794,7 +9790,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9817,13 +9813,13 @@
         <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9874,22 +9870,22 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>40</v>
@@ -9903,7 +9899,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9932,7 +9928,7 @@
         <v>93</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>95</v>
@@ -9985,7 +9981,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10000,7 +9996,7 @@
         <v>40</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>40</v>
@@ -10014,11 +10010,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10040,10 +10036,10 @@
         <v>92</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>95</v>
@@ -10098,7 +10094,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10127,7 +10123,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10153,10 +10149,10 @@
         <v>61</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10207,7 +10203,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10236,7 +10232,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10259,23 +10255,23 @@
         <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P80" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q80" t="s" s="2">
         <v>40</v>
@@ -10320,7 +10316,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10349,7 +10345,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10372,16 +10368,16 @@
         <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10431,7 +10427,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10460,7 +10456,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10483,16 +10479,16 @@
         <v>40</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10542,7 +10538,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10571,7 +10567,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10597,10 +10593,10 @@
         <v>67</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10651,7 +10647,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10660,7 +10656,7 @@
         <v>48</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>40</v>
@@ -10680,7 +10676,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10703,13 +10699,13 @@
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10760,7 +10756,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10769,7 +10765,7 @@
         <v>48</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>40</v>
@@ -10789,7 +10785,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10815,13 +10811,13 @@
         <v>40</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -10871,7 +10867,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -10900,7 +10896,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10926,13 +10922,13 @@
         <v>40</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -10982,7 +10978,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
